--- a/P2_1 Stroke Community Prevalence.xlsx
+++ b/P2_1 Stroke Community Prevalence.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eithnesexton\Desktop\Model Oct 2020\For Repo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eithnesexton\Desktop\Model Stroke Paper R1 4 Mar\For Repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8040" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8040" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="W3 Stroke Prevalence C W Q" sheetId="11" r:id="rId1"/>
@@ -18,14 +18,15 @@
     <sheet name="W3 Stroke Prevalence C M S1" sheetId="4" r:id="rId4"/>
     <sheet name="DM Stroke Prevalence W" sheetId="19" r:id="rId5"/>
     <sheet name="DM Stroke Prevalence M" sheetId="20" r:id="rId6"/>
-    <sheet name="Source Info" sheetId="3" r:id="rId7"/>
+    <sheet name="MetaData" sheetId="3" r:id="rId7"/>
+    <sheet name="Data Dictionary" sheetId="21" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="50">
   <si>
     <t>60-64</t>
   </si>
@@ -48,33 +49,9 @@
     <t>Age Group</t>
   </si>
   <si>
-    <t>QNHS Micro data - Heath Module q3 2010</t>
-  </si>
-  <si>
-    <t>Collected 2014</t>
-  </si>
-  <si>
-    <t>n age 25-44 = 4120</t>
-  </si>
-  <si>
     <t>StrokePr_C</t>
   </si>
   <si>
-    <t>TILDA wave 1</t>
-  </si>
-  <si>
-    <t>TILDA AMF v1.4</t>
-  </si>
-  <si>
-    <t>n = 8492</t>
-  </si>
-  <si>
-    <t>Stroke defined as doctor diagnosed stroke - how many strokes have you had? gen stroke = ph219 == 1 | ph219 == 2</t>
-  </si>
-  <si>
-    <t>Rate</t>
-  </si>
-  <si>
     <t>70-74</t>
   </si>
   <si>
@@ -84,18 +61,6 @@
     <t>80-84</t>
   </si>
   <si>
-    <t>pr</t>
-  </si>
-  <si>
-    <t>n = 6,530 (age 50-89)</t>
-  </si>
-  <si>
-    <t>Defined based on ph218, which was only asked if participant reported current stroke, or a feed forward stroke and no dispute</t>
-  </si>
-  <si>
-    <t>TILDA Wave 3 (Researcher Microfile)</t>
-  </si>
-  <si>
     <t>50-64</t>
   </si>
   <si>
@@ -111,9 +76,6 @@
     <t>40-44</t>
   </si>
   <si>
-    <t>S</t>
-  </si>
-  <si>
     <t>TILDA</t>
   </si>
   <si>
@@ -141,22 +103,79 @@
     <t xml:space="preserve">TILDA </t>
   </si>
   <si>
-    <t xml:space="preserve">DisMod II Tool </t>
-  </si>
-  <si>
     <t>World Health Organisation. DisMod II [Internet]. 2001. Available from: https://www.who.int/healthinfo/global_burden_disease/tools_software/en/</t>
   </si>
   <si>
-    <t>Collected 2009/2011</t>
-  </si>
-  <si>
-    <t>Stroke defined based on Cond08 -Stroke (ever diagnosed)</t>
-  </si>
-  <si>
-    <t>Accessed via Irish Social Science Data Archive (ISSDA)  https://www.ucd.ie/issda/</t>
-  </si>
-  <si>
-    <t>Accessed onsite via the hot desk facility - see https://tilda.tcd.ie/data/accessing-data/ for information on access</t>
+    <t xml:space="preserve">Reference information or contact name/institution </t>
+  </si>
+  <si>
+    <t>Population represented</t>
+  </si>
+  <si>
+    <t>Data collection method</t>
+  </si>
+  <si>
+    <t>Year(s) of data collection</t>
+  </si>
+  <si>
+    <t>Sex and age range</t>
+  </si>
+  <si>
+    <t>Sample size</t>
+  </si>
+  <si>
+    <t>Population living in the community in the Republic of Ireland aged 50+ years</t>
+  </si>
+  <si>
+    <t>Face to face survey (Computer Assisted Personal Interview)</t>
+  </si>
+  <si>
+    <t>Men and Women aged 50-89</t>
+  </si>
+  <si>
+    <t>Quarterly National Household Survey, Health Module, Q3 2010. Accessed via Irish Social Science Data Archive (ISSDA)  https://www.ucd.ie/issda/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">People resident in private households in the Republic of Ireland. </t>
+  </si>
+  <si>
+    <t>Men and women aged 50-64</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Prevalence was estimated from parameter estimates for total stroke incidence (P4), case fatality (P9_1) and background mortality (P9_2)</t>
+  </si>
+  <si>
+    <t>Worksheets</t>
+  </si>
+  <si>
+    <t>W3 Stroke Prevalence C W Q; W3 Stroke Prevalence C M Q; W3 Stroke Prevalence C W S1; W3 Stroke Prevalence C W S1</t>
+  </si>
+  <si>
+    <t>DM Stroke Prevalence W; DM Stroke Prevalence M</t>
+  </si>
+  <si>
+    <t>Stroke defined as self-reported doctor diagnosis – “Has a doctor ever told you that you have had a stroke?” Variable name = Cond08.</t>
+  </si>
+  <si>
+    <t>Diagnostic criteria (stroke)</t>
+  </si>
+  <si>
+    <t>Stroke defined as self-reported doctor diagnosis – “Has a doctor ever told you that you have had a stroke?” Variable name = ph218.</t>
+  </si>
+  <si>
+    <t>The Irish Longitudinal Study on Ageing (nd). Wave 3. Researcher Microfile v3.5.0. Accessed via hotdesk facility, October 2020. See https://tilda.tcd.ie/data/accessing-data/ for information on access</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description </t>
+  </si>
+  <si>
+    <t>Proportion of community -dwelling population with a history of stroke</t>
   </si>
 </sst>
 </file>
@@ -169,19 +188,13 @@
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -194,6 +207,20 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -215,16 +242,23 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -533,7 +567,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -547,19 +581,19 @@
       <c r="B1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>10</v>
+      <c r="C1" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -571,12 +605,12 @@
         <v>4120</v>
       </c>
       <c r="E2" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -588,12 +622,12 @@
         <v>3166</v>
       </c>
       <c r="E3" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -605,12 +639,12 @@
         <v>1140</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -622,7 +656,7 @@
         <v>755</v>
       </c>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -633,10 +667,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -646,34 +680,40 @@
     <col min="4" max="4" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>10</v>
+      <c r="C1" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>4.3669999999999999E-4</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <v>2290</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -681,13 +721,16 @@
       <c r="C3" s="1">
         <v>1.5709376534118802E-2</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>2037</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -698,10 +741,13 @@
       <c r="D4">
         <v>968</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -712,58 +758,8 @@
       <c r="D5">
         <v>631</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12">
-        <v>1297</v>
-      </c>
-      <c r="C12">
-        <v>9</v>
-      </c>
-      <c r="D12">
-        <v>6.9390902081727058E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="E5" t="s">
         <v>24</v>
-      </c>
-      <c r="B13">
-        <v>968</v>
-      </c>
-      <c r="C13">
-        <v>29</v>
-      </c>
-      <c r="D13">
-        <v>2.9958677685950414E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14">
-        <v>631</v>
-      </c>
-      <c r="C14">
-        <v>32</v>
-      </c>
-      <c r="D14">
-        <v>5.0713153724247229E-2</v>
       </c>
     </row>
   </sheetData>
@@ -777,7 +773,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -791,14 +787,14 @@
       <c r="B1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>10</v>
+      <c r="C1" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -815,12 +811,12 @@
         <v>4120</v>
       </c>
       <c r="E2" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -832,12 +828,12 @@
         <v>1739</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -849,12 +845,12 @@
         <v>1140</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -866,7 +862,7 @@
         <v>755</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -877,7 +873,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
@@ -890,18 +886,21 @@
     <col min="4" max="4" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>10</v>
+      <c r="C1" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -914,10 +913,13 @@
       <c r="D2" s="2">
         <v>2290</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -928,10 +930,13 @@
       <c r="D3">
         <v>1297</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -942,10 +947,13 @@
       <c r="D4">
         <v>968</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -956,58 +964,8 @@
       <c r="D5">
         <v>631</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12">
-        <v>1297</v>
-      </c>
-      <c r="C12">
-        <v>9</v>
-      </c>
-      <c r="D12">
-        <v>6.9390902081727058E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13">
-        <v>968</v>
-      </c>
-      <c r="C13">
-        <v>29</v>
-      </c>
-      <c r="D13">
-        <v>2.9958677685950414E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14">
-        <v>631</v>
-      </c>
-      <c r="C14">
-        <v>32</v>
-      </c>
-      <c r="D14">
-        <v>5.0713153724247229E-2</v>
+      <c r="E5" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1018,10 +976,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1031,21 +989,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>10</v>
+      <c r="C1" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1054,12 +1012,12 @@
         <v>2E-3</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -1068,7 +1026,7 @@
         <v>4.1000000000000003E-3</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -1082,7 +1040,7 @@
         <v>6.7000000000000002E-3</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -1096,7 +1054,7 @@
         <v>1.0800000000000001E-2</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -1110,7 +1068,7 @@
         <v>1.7500000000000002E-2</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -1124,12 +1082,12 @@
         <v>2.7099999999999999E-2</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -1138,12 +1096,12 @@
         <v>3.9699999999999999E-2</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -1152,12 +1110,12 @@
         <v>5.6899999999999999E-2</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -1166,12 +1124,12 @@
         <v>7.8200000000000006E-2</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -1180,12 +1138,7 @@
         <v>0.10730000000000001</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C31" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1209,21 +1162,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>10</v>
+      <c r="C1" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1232,12 +1185,12 @@
         <v>2.3999999999999998E-3</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -1246,7 +1199,7 @@
         <v>5.3E-3</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -1260,7 +1213,7 @@
         <v>9.4000000000000004E-3</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -1274,7 +1227,7 @@
         <v>1.6799999999999999E-2</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -1288,7 +1241,7 @@
         <v>2.8799999999999999E-2</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -1302,12 +1255,12 @@
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -1316,12 +1269,12 @@
         <v>6.3600000000000004E-2</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -1330,12 +1283,12 @@
         <v>8.14E-2</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -1344,12 +1297,12 @@
         <v>9.5500000000000002E-2</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -1358,12 +1311,12 @@
         <v>0.108</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1374,106 +1327,191 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J32"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="49.5546875" customWidth="1"/>
+    <col min="2" max="2" width="57.33203125" customWidth="1"/>
+    <col min="3" max="3" width="71.88671875" customWidth="1"/>
+    <col min="4" max="4" width="86.77734375" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6">
+        <v>2014</v>
+      </c>
+      <c r="C6">
+        <v>2010</v>
+      </c>
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="D8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J32" t="s">
-        <v>28</v>
-      </c>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9">
+        <v>6530</v>
+      </c>
+      <c r="C9">
+        <v>11613</v>
+      </c>
+      <c r="D9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.44140625" customWidth="1"/>
+    <col min="2" max="2" width="59.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>